--- a/step6-Output.xlsx
+++ b/step6-Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D930B1-64B7-4556-9D8E-4AE9D198C419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F5BDD-83C0-4A21-AEE3-6BB82B4072D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,10 +186,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,7 +534,7 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,16 +617,16 @@
         <f>AVERAGE(D2:D31)</f>
         <v>144.03333333333333</v>
       </c>
-      <c r="K3" s="4">
-        <f>J3-1.96*I3/SQRT(30)</f>
-        <v>139.55350062572887</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
-        <f>J3+1.96*I3/SQRT(30)</f>
-        <v>148.51316604093779</v>
-      </c>
-      <c r="N3" s="4"/>
+      <c r="K3" s="5">
+        <f>J3-2.045*I3/SQRT(30)</f>
+        <v>139.35922216647052</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <f>J3+2.045*I3/SQRT(30)</f>
+        <v>148.70744450019615</v>
+      </c>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -656,16 +656,16 @@
         <f>AVERAGE(D32:D61)</f>
         <v>135.73333333333332</v>
       </c>
-      <c r="K4" s="4">
-        <f>J4-1.96*I4/SQRT(30)</f>
-        <v>132.13527207589752</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <f>J4+1.96*I4/SQRT(30)</f>
-        <v>139.33139459076912</v>
-      </c>
-      <c r="N4" s="4"/>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K11" si="0">J4-2.045*I4/SQRT(30)</f>
+        <v>131.97923370503932</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M11" si="1">J4+2.045*I4/SQRT(30)</f>
+        <v>139.48743296162732</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -695,16 +695,16 @@
         <f>AVERAGE(D62:D91)</f>
         <v>47.233333333333334</v>
       </c>
-      <c r="K5" s="4">
-        <f>J5-1.96*I5/SQRT(30)</f>
-        <v>45.175127724191739</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <f>J5+1.96*I5/SQRT(30)</f>
-        <v>49.291538942474929</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>45.085868807468763</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>49.380797859197905</v>
+      </c>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -734,16 +734,16 @@
         <f>AVERAGE(D92:D121)</f>
         <v>0.78080266700952694</v>
       </c>
-      <c r="K6" s="4">
-        <f>J6-1.96*I6/SQRT(30)</f>
-        <v>0.74645651056891704</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <f>J6+1.96*I6/SQRT(30)</f>
-        <v>0.81514882345013684</v>
-      </c>
-      <c r="N6" s="4"/>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74496700888654366</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.81663832513251022</v>
+      </c>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -773,16 +773,16 @@
         <f>AVERAGE(D122:D151)</f>
         <v>45.366666666666667</v>
       </c>
-      <c r="K7" s="4">
-        <f>J7-1.96*I7/SQRT(30)</f>
-        <v>43.110325220806466</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <f>J7+1.96*I7/SQRT(30)</f>
-        <v>47.623008112526868</v>
-      </c>
-      <c r="N7" s="4"/>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>43.012473678511505</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>47.72085965482183</v>
+      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -811,16 +811,16 @@
         <f>AVERAGE(D152:D181)</f>
         <v>0.74857595880302774</v>
       </c>
-      <c r="K8" s="4">
-        <f>J8-1.96*I8/SQRT(30)</f>
-        <v>0.71113754167519161</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <f>J8+1.96*I8/SQRT(30)</f>
-        <v>0.78601437593086387</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70951393685077013</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.78763798075528535</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -849,16 +849,16 @@
         <f>AVERAGE(D182:D211)</f>
         <v>45.366666666666667</v>
       </c>
-      <c r="K9" s="4">
-        <f>J9-1.96*I9/SQRT(30)</f>
-        <v>43.315337759951582</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <f>J9+1.96*I9/SQRT(30)</f>
-        <v>47.417995573381752</v>
-      </c>
-      <c r="N9" s="4"/>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>43.226377067568528</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>47.506956265764806</v>
+      </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -887,16 +887,16 @@
         <f>AVERAGE(D212:D241)</f>
         <v>0.74972518350591599</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" ref="K10:K11" si="0">J10-1.96*I10/SQRT(30)</f>
-        <v>0.71612457157198717</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <f t="shared" ref="M10:M11" si="1">J10+1.96*I10/SQRT(30)</f>
-        <v>0.78332579543984482</v>
-      </c>
-      <c r="N10" s="4"/>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7146674021768934</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.78478296483493859</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -925,16 +925,16 @@
         <f>AVERAGE(D242:D271)</f>
         <v>135.73333333333332</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>132.13527207589752</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+        <v>131.97923370503932</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>139.33139459076912</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>139.48743296162732</v>
+      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -972,7 +972,7 @@
       <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1" t="s">
         <v>9</v>
       </c>
